--- a/aichan/494952507942473454_2021-02-24_03-08-31.xlsx
+++ b/aichan/494952507942473454_2021-02-24_03-08-31.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,10 +560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:09:59</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44306.50693287037</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -615,10 +629,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:54:14</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44256.99599537037</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:50:59</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44256.99373842592</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -765,10 +775,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:31:47</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44256.77207175926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -841,10 +849,8 @@
           <t>4201110489</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-28 21:13:59</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44255.88471064815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -908,10 +914,8 @@
           <t>4201110489</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-28 21:13:44</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44255.88453703704</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -975,10 +979,8 @@
           <t>4201110489</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-28 19:37:28</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44255.81768518518</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1057,10 +1059,8 @@
           <t>4201110489</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-28 19:37:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44255.81741898148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1139,10 +1139,8 @@
           <t>4201110489</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-28 19:18:57</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44255.80482638889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>4201110489</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-28 19:16:56</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44255.80342592593</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1288,10 +1284,8 @@
           <t>4201110489</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-28 18:58:38</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44255.79071759259</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1355,10 +1349,8 @@
           <t>4187560567</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:23:24</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44253.51625</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1426,10 +1418,8 @@
           <t>4175508043</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-25 23:21:31</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44252.97327546297</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1497,10 +1487,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-25 16:38:12</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44252.69319444444</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1573,10 +1561,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-25 16:36:26</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44252.69196759259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1651,10 +1637,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-25 16:20:20</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44252.68078703704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1719,10 +1703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-25 15:34:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44252.64869212963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1794,10 +1776,8 @@
           <t>4175508043</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-25 12:40:08</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44252.52787037037</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1865,10 +1845,8 @@
           <t>4175193614</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-25 12:37:41</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44252.52616898148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1936,10 +1914,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-25 11:57:14</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44252.49807870371</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2018,10 +1994,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-25 11:51:54</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44252.494375</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2093,10 +2067,8 @@
           <t>4174073136</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-25 06:38:39</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44252.27684027778</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2173,10 +2145,8 @@
           <t>4180665463</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-25 05:43:30</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44252.23854166667</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2255,10 +2225,8 @@
           <t>4180665091</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-25 05:41:22</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44252.23706018519</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2337,10 +2305,8 @@
           <t>4174231115</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-25 05:35:01</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44252.23265046296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2419,10 +2385,8 @@
           <t>4180653763</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-25 05:34:14</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44252.23210648148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2501,10 +2465,8 @@
           <t>4180657249</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-25 05:33:42</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44252.23173611111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2583,10 +2545,8 @@
           <t>4180653310</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-25 05:31:47</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44252.2304050926</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2665,10 +2625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:24:43</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44251.93383101852</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2740,10 +2698,8 @@
           <t>4177992699</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:37:37</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44251.77612268519</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2811,10 +2767,8 @@
           <t>4177506165</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-24 17:11:11</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44251.71609953704</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2890,10 +2844,8 @@
           <t>4177445507</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-24 16:58:54</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44251.70756944444</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2965,10 +2917,8 @@
           <t>4177437523</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-24 16:57:58</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44251.7069212963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3040,10 +2990,8 @@
           <t>4177428325</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-24 16:57:20</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44251.70648148148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3119,10 +3067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-24 16:50:00</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44251.70138888889</v>
       </c>
       <c r="I36" t="n">
         <v>7</v>
@@ -3191,10 +3137,8 @@
           <t>4177308454</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-24 16:31:33</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44251.68857638889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3262,10 +3206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-24 16:10:42</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44251.67409722223</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3329,10 +3271,8 @@
           <t>4177067177</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-24 15:37:17</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44251.6508912037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3397,10 +3337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-24 14:53:41</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44251.62061342593</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3464,10 +3402,8 @@
           <t>4175508043</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-24 14:46:07</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44251.6153587963</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3535,10 +3471,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-24 14:37:45</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44251.60954861111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3611,10 +3545,8 @@
           <t>4176631491</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-24 14:05:53</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44251.58741898148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3682,10 +3614,8 @@
           <t>4176667403</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-24 14:03:05</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44251.58547453704</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3745,10 +3675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-24 14:01:43</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44251.58452546296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3808,10 +3736,8 @@
           <t>4176631491</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-24 13:55:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44251.58010416666</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3883,10 +3809,8 @@
           <t>4176625993</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-24 13:53:41</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44251.57894675926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3962,10 +3886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-24 13:25:59</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44251.55971064815</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -4041,10 +3963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-24 13:24:25</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44251.55862268519</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4112,10 +4032,8 @@
           <t>4173070401</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-24 13:12:14</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44251.55016203703</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4187,10 +4105,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-24 13:11:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44251.549375</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4255,10 +4171,8 @@
           <t>4172655543</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-24 13:10:02</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44251.54863425926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4334,10 +4248,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-24 12:48:00</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44251.53333333333</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4401,10 +4313,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-24 12:45:31</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44251.53160879629</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4468,10 +4378,8 @@
           <t>4176126988</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-24 12:19:39</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44251.51364583334</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4543,10 +4451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-24 12:15:44</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44251.51092592593</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4618,10 +4524,8 @@
           <t>4174167549</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-24 12:00:48</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44251.50055555555</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4700,10 +4604,8 @@
           <t>4176000746</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:56:25</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44251.49751157407</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4767,10 +4669,8 @@
           <t>4175985926</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:53:42</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44251.495625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4838,10 +4738,8 @@
           <t>4175926084</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:42:09</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44251.48760416666</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4913,10 +4811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:41:16</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44251.48699074074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4988,10 +4884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:31:59</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44251.48054398148</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5059,10 +4953,8 @@
           <t>4175508043</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:23:01</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44251.47431712963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5127,10 +5019,8 @@
           <t>4175796944</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:15:30</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44251.46909722222</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5194,10 +5084,8 @@
           <t>4172795177</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:13:27</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44251.46767361111</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5269,10 +5157,8 @@
           <t>4175763728</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-24 11:07:54</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44251.46381944444</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5336,10 +5222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:38:38</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44251.44349537037</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -5415,10 +5299,8 @@
           <t>4175616440</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:35:10</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44251.44108796296</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5486,10 +5368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:30:53</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44251.43811342592</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5561,10 +5441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:23:57</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44251.43329861111</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5628,10 +5506,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:12:43</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44251.42549768519</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5695,10 +5571,8 @@
           <t>4175508043</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:09:05</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44251.42297453704</v>
       </c>
       <c r="I72" t="n">
         <v>13</v>
@@ -5770,10 +5644,8 @@
           <t>4175507729</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:08:49</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44251.42278935185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5849,10 +5721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-24 10:01:35</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44251.4177662037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5916,10 +5786,8 @@
           <t>4173455613</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:59:13</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44251.41612268519</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5987,10 +5855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:40:47</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44251.40332175926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6054,10 +5920,8 @@
           <t>4175377034</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:33:31</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44251.39827546296</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -6125,10 +5989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:32:58</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44251.39789351852</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6196,10 +6058,8 @@
           <t>4172744252</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:31:34</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44251.3969212963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6267,10 +6127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:06:10</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44251.3792824074</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6342,10 +6200,8 @@
           <t>4175282327</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:04:33</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44251.37815972222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6417,10 +6273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-24 09:04:07</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44251.3778587963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6492,10 +6346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:51:43</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44251.36924768519</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6559,10 +6411,8 @@
           <t>4172755723</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:44:46</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44251.3644212963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6630,10 +6480,8 @@
           <t>4175193614</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:34:45</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44251.35746527778</v>
       </c>
       <c r="I85" t="n">
         <v>12</v>
@@ -6701,10 +6549,8 @@
           <t>4175183116</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:32:24</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44251.35583333333</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6772,10 +6618,8 @@
           <t>4172874210</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:19:29</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44251.34686342593</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6847,10 +6691,8 @@
           <t>4172744252</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:08:25</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44251.33917824074</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6910,10 +6752,8 @@
           <t>4174555118</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:04:33</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44251.33649305555</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6985,10 +6825,8 @@
           <t>4175130040</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:04:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44251.33615740741</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7060,10 +6898,8 @@
           <t>4175112277</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:00:05</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44251.33339120371</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7135,10 +6971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:56:30</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44251.33090277778</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7203,10 +7037,8 @@
           <t>4175078291</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:53:21</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44251.32871527778</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7274,10 +7106,8 @@
           <t>4175078291</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:45:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44251.32304398148</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7337,10 +7167,8 @@
           <t>4174363280</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:40:32</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44251.31981481481</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7400,10 +7228,8 @@
           <t>4172604915</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:31:59</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44251.31387731482</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7475,10 +7301,8 @@
           <t>4172755723</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:23:36</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44251.30805555556</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7550,10 +7374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:21:59</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44251.30693287037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7621,10 +7443,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-24 07:10:50</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44251.29918981482</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7696,10 +7516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-24 06:42:34</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44251.27956018518</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7763,10 +7581,8 @@
           <t>4174975508</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-24 05:49:06</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44251.24243055555</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7844,10 +7660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-24 04:25:11</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44251.18415509259</v>
       </c>
       <c r="I102" t="n">
         <v>90</v>
@@ -7915,10 +7729,8 @@
           <t>4174874891</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-24 03:39:01</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44251.1520949074</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7982,10 +7794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-24 03:37:38</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44251.15113425926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8053,10 +7863,8 @@
           <t>4173455613</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-24 03:36:53</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44251.15061342593</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8132,10 +7940,8 @@
           <t>4174862609</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-24 03:21:12</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44251.13972222222</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8206,10 +8012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:52:33</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44251.11982638889</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8277,10 +8081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:48:59</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44251.11734953704</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8352,10 +8154,8 @@
           <t>4174783869</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:31:43</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44251.1053587963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8438,10 +8238,8 @@
           <t>4174785509</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:28:02</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44251.10280092592</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8509,10 +8307,8 @@
           <t>4174772196</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:22:51</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44251.09920138889</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8588,10 +8384,8 @@
           <t>4174772174</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:22:49</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44251.09917824074</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8659,10 +8453,8 @@
           <t>4174545456</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:21:29</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44251.09825231481</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8738,10 +8530,8 @@
           <t>4172983572</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:20:30</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44251.09756944444</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8809,10 +8599,8 @@
           <t>4174770370</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:20:04</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44251.09726851852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8888,10 +8676,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:17:48</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44251.09569444445</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8959,10 +8745,8 @@
           <t>4174754722</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:17:09</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44251.09524305556</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9030,10 +8814,8 @@
           <t>4172604915</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:15:54</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44251.094375</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9109,10 +8891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:14:22</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44251.09331018518</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9188,10 +8968,8 @@
           <t>4174750705</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:11:27</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44251.09128472222</v>
       </c>
       <c r="I120" t="n">
         <v>5</v>
@@ -9251,10 +9029,8 @@
           <t>4174750265</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:10:49</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44251.0908449074</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9330,10 +9106,8 @@
           <t>4174728797</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:03:44</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44251.08592592592</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9409,10 +9183,8 @@
           <t>4172745569</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-24 02:02:13</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44251.08487268518</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -9476,10 +9248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:56:08</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44251.08064814815</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9547,10 +9317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:47:21</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44251.07454861111</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9614,10 +9382,8 @@
           <t>4173535495</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:42:57</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44251.07149305556</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9685,10 +9451,8 @@
           <t>4174662870</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:37:56</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44251.06800925926</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9756,10 +9520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:36:41</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44251.0671412037</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9827,10 +9589,8 @@
           <t>4174654047</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:35:33</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44251.06635416667</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9906,10 +9666,8 @@
           <t>4172531959</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:34:35</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44251.06568287037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9985,10 +9743,8 @@
           <t>4174647078</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:31:56</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44251.06384259259</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10064,10 +9820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:28:37</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44251.06153935185</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10131,10 +9885,8 @@
           <t>4174633668</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:28:35</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44251.06151620371</v>
       </c>
       <c r="I133" t="n">
         <v>6</v>
@@ -10207,10 +9959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:22:54</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44251.05756944444</v>
       </c>
       <c r="I134" t="n">
         <v>6</v>
@@ -10274,10 +10024,8 @@
           <t>4173318960</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:19:34</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44251.05525462963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10345,10 +10093,8 @@
           <t>4172874210</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:15:23</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44251.05234953704</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10416,10 +10162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:12:19</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44251.05021990741</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10483,10 +10227,8 @@
           <t>4174568729</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:07:28</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44251.04685185185</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10550,10 +10292,8 @@
           <t>4174555118</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:03:07</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44251.04383101852</v>
       </c>
       <c r="I139" t="n">
         <v>6</v>
@@ -10617,10 +10357,8 @@
           <t>4174545456</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-24 01:00:23</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44251.04193287037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10684,10 +10422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:59:28</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44251.04129629629</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10751,10 +10487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:58:11</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44251.04040509259</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10822,10 +10556,8 @@
           <t>4174530266</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:56:17</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44251.03908564815</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10889,10 +10621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:42:02</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44251.02918981481</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10964,10 +10694,8 @@
           <t>4174437510</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:35:27</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44251.02461805556</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11043,10 +10771,8 @@
           <t>4172900598</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:29:28</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44251.02046296297</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11114,10 +10840,8 @@
           <t>4173323406</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:27:58</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44251.0194212963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11185,10 +10909,8 @@
           <t>4173323406</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:26:27</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44251.01836805556</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11256,10 +10978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:25:58</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44251.01803240741</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11319,10 +11039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:23:26</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44251.01627314815</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11398,10 +11116,8 @@
           <t>4173186200</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:23:26</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44251.01627314815</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11465,10 +11181,8 @@
           <t>4173323406</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:22:47</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44251.01582175926</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11536,10 +11250,8 @@
           <t>4174363986</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:20:30</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44251.01423611111</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11617,10 +11329,8 @@
           <t>4174363280</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:20:03</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44251.01392361111</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11698,10 +11408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:18:03</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44251.01253472222</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11769,10 +11477,8 @@
           <t>4174167549</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:17:24</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44251.01208333333</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11840,10 +11546,8 @@
           <t>4172900598</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:16:43</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44251.0116087963</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11903,10 +11607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:07:52</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44251.00546296296</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11971,10 +11673,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-02-24 00:03:44</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44251.00259259259</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12034,10 +11734,8 @@
           <t>4172900598</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:59:54</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44250.99993055555</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12105,10 +11803,8 @@
           <t>4173957558</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:57:12</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44250.99805555555</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12172,10 +11868,8 @@
           <t>4172744252</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:57:06</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44250.99798611111</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12247,10 +11941,8 @@
           <t>4174231115</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:54:01</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44250.9958449074</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12326,10 +12018,8 @@
           <t>4174214296</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:52:20</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44250.99467592593</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12393,10 +12083,8 @@
           <t>4172900598</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:51:10</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44250.99386574074</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12456,10 +12144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:50:27</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44250.99336805556</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12528,10 +12214,8 @@
           <t>4173957558</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:50:13</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44250.99320601852</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12609,10 +12293,8 @@
           <t>4172900598</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:47:32</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44250.99134259259</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12680,10 +12362,8 @@
           <t>4174186735</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:46:53</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44250.99089120371</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12760,10 +12440,8 @@
           <t>4174180425</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:44:47</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44250.98943287037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12835,10 +12513,8 @@
           <t>4173539221</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:43:56</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44250.98884259259</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12902,10 +12578,8 @@
           <t>4174168404</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:43:44</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44250.9887037037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12977,10 +12651,8 @@
           <t>4174167549</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:43:18</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44250.98840277778</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13056,10 +12728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:39:45</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44250.9859375</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13135,10 +12805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:37:50</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44250.98460648148</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13214,10 +12882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:34:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44250.98222222222</v>
       </c>
       <c r="I176" t="n">
         <v>4</v>
@@ -13293,10 +12959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:32:38</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44250.98099537037</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13356,10 +13020,8 @@
           <t>4172744252</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:31:16</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44250.9800462963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13423,10 +13085,8 @@
           <t>4174090167</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:30:02</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44250.97918981482</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13494,10 +13154,8 @@
           <t>4174073136</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:28:44</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44250.97828703704</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13565,10 +13223,8 @@
           <t>4173455613</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:23:58</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44250.97497685185</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13644,10 +13300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:23:25</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44250.97459490741</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13724,10 +13378,8 @@
           <t>4174016708</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:18:41</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44250.97130787037</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13804,10 +13456,8 @@
           <t>4173609246</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:14:22</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44250.96831018518</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13871,10 +13521,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:13:56</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44250.96800925926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13946,10 +13594,8 @@
           <t>4173967699</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:11:30</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44250.96631944444</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14017,10 +13663,8 @@
           <t>4173960274</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:10:10</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44250.96539351852</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14084,10 +13728,8 @@
           <t>4173957558</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:09:12</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44250.96472222222</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14151,10 +13793,8 @@
           <t>4173042150</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:08:59</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44250.96457175926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14226,10 +13866,8 @@
           <t>4173950531</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:08:06</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44250.96395833333</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14293,10 +13931,8 @@
           <t>4172970136</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:07:43</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44250.96369212963</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14360,10 +13996,8 @@
           <t>4173332594</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:06:47</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44250.96304398148</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14427,10 +14061,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:03:47</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44250.96096064815</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14498,10 +14130,8 @@
           <t>4173903068</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:01:48</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44250.95958333334</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14569,10 +14199,8 @@
           <t>4173186200</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-02-23 23:01:38</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44250.95946759259</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -14640,10 +14268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:59:54</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44250.95826388889</v>
       </c>
       <c r="I196" t="n">
         <v>201</v>
@@ -14715,10 +14341,8 @@
           <t>4173042150</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:59:20</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44250.95787037037</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14778,10 +14402,8 @@
           <t>4173332594</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:53:37</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44250.95390046296</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14849,10 +14471,8 @@
           <t>4172514049</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:52:53</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44250.9533912037</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14924,10 +14544,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:50:39</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44250.95184027778</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14991,10 +14609,8 @@
           <t>4173824877</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:50:26</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44250.95168981481</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15058,10 +14674,8 @@
           <t>4172999910</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:50:05</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44250.95144675926</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15137,10 +14751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:48:05</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44250.95005787037</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15212,10 +14824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:47:36</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44250.94972222222</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15283,10 +14893,8 @@
           <t>4173186200</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:45:33</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44250.94829861111</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15350,10 +14958,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:43:40</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44250.94699074074</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15425,10 +15031,8 @@
           <t>4173787188</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:43:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44250.94678240741</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15492,10 +15096,8 @@
           <t>4173780249</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:42:25</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44250.94612268519</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15573,10 +15175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:42:18</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44250.94604166667</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15648,10 +15248,8 @@
           <t>4172798562</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:41:53</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44250.94575231482</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15715,10 +15313,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:41:39</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44250.94559027778</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15782,10 +15378,8 @@
           <t>4172574552</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:41:03</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44250.94517361111</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15857,10 +15451,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:40:38</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44250.94488425926</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15924,10 +15516,8 @@
           <t>4173539221</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:37:49</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44250.94292824074</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16003,10 +15593,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:35:48</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44250.94152777778</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16074,10 +15662,8 @@
           <t>4173728636</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:34:56</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44250.94092592593</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16145,10 +15731,8 @@
           <t>4173731365</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:34:33</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44250.94065972222</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16216,10 +15800,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:33:41</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44250.94005787037</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16291,10 +15873,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:33:26</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44250.93988425926</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16366,10 +15946,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:31:40</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44250.93865740741</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16462,10 +16040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:30:52</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44250.93810185185</v>
       </c>
       <c r="I221" t="n">
         <v>4</v>
@@ -16533,10 +16109,8 @@
           <t>4173323406</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:30:40</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44250.93796296296</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16608,10 +16182,8 @@
           <t>4172574552</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:29:53</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44250.93741898148</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16675,10 +16247,8 @@
           <t>4172763742</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:24:43</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44250.93383101852</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16750,10 +16320,8 @@
           <t>4173661319</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:23:54</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44250.93326388889</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16821,10 +16389,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:22:23</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44250.93221064815</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16892,10 +16458,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:21:52</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44250.93185185185</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16967,10 +16531,8 @@
           <t>4173646168</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:21:29</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44250.93158564815</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17038,10 +16600,8 @@
           <t>4173646137</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:21:28</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44250.93157407407</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17117,10 +16677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:18:20</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44250.92939814815</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17196,10 +16754,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:18:13</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44250.92931712963</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17271,10 +16827,8 @@
           <t>4173609246</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:16:27</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44250.92809027778</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17346,10 +16900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:12:34</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44250.92539351852</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17413,10 +16965,8 @@
           <t>4173578731</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:11:54</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44250.92493055556</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17492,10 +17042,8 @@
           <t>4173581952</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:11:47</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44250.92484953703</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17571,10 +17119,8 @@
           <t>4173566537</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:09:03</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44250.92295138889</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17638,10 +17184,8 @@
           <t>4173539221</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:05:36</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44250.92055555555</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17705,10 +17249,8 @@
           <t>4173532947</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:04:42</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44250.91993055555</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17784,10 +17326,8 @@
           <t>4173535495</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:03:59</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44250.91943287037</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17855,10 +17395,8 @@
           <t>4172767071</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-02-23 22:01:33</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44250.91774305556</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -17930,10 +17468,8 @@
           <t>4173323406</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:54:50</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44250.91307870371</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18001,10 +17537,8 @@
           <t>4173472570</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:54:15</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44250.91267361111</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18080,10 +17614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:54:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44250.91261574074</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18147,10 +17679,8 @@
           <t>4173462035</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:53:03</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44250.91184027777</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18228,10 +17758,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:52:44</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44250.91162037037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18295,10 +17823,8 @@
           <t>4173451018</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:50:53</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44250.91033564815</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18370,10 +17896,8 @@
           <t>4173455613</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:50:38</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44250.91016203703</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -18445,10 +17969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:48:04</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44250.90837962963</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18512,10 +18034,8 @@
           <t>4172767071</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:46:43</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44250.90744212963</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18591,10 +18111,8 @@
           <t>4173401921</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:42:59</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44250.90484953704</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18671,10 +18189,8 @@
           <t>4173401325</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:42:42</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44250.90465277778</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18750,10 +18266,8 @@
           <t>4172866517</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:41:38</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44250.90391203704</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18825,10 +18339,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:41:19</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44250.90369212963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18896,10 +18408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:39:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44250.90244212963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18975,10 +18485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:39:26</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44250.90238425926</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19050,10 +18558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:38:31</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44250.90174768519</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19129,10 +18635,8 @@
           <t>4173365015</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:36:31</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44250.90035879629</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19200,10 +18704,8 @@
           <t>4173354222</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:36:10</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44250.90011574074</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19267,10 +18769,8 @@
           <t>4173358084</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:36:02</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44250.90002314815</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19346,10 +18846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:35:37</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44250.89973379629</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19417,10 +18915,8 @@
           <t>4173348851</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:33:58</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44250.89858796296</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19488,10 +18984,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:32:54</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44250.89784722222</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19567,10 +19061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:32:46</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44250.89775462963</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -19646,10 +19138,8 @@
           <t>4173323406</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:31:07</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44250.8966087963</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19717,10 +19207,8 @@
           <t>4173332594</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:30:52</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44250.89643518518</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19784,10 +19272,8 @@
           <t>4173204926</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:30:00</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44250.89583333334</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19855,10 +19341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:29:46</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44250.8956712963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19926,10 +19410,8 @@
           <t>4173320451</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:29:33</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44250.89552083334</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -20005,10 +19487,8 @@
           <t>4172580414</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:29:27</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44250.89545138889</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20084,10 +19564,8 @@
           <t>4173318960</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:29:03</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44250.89517361111</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20159,10 +19637,8 @@
           <t>4172525994</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:28:13</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44250.8945949074</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20238,10 +19714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:28:10</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44250.89456018519</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20317,10 +19791,8 @@
           <t>4173307362</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:27:54</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44250.894375</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20389,10 +19861,8 @@
           <t>4173306711</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:27:34</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44250.89414351852</v>
       </c>
       <c r="I274" t="n">
         <v>4</v>
@@ -20460,10 +19930,8 @@
           <t>4173293066</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:25:39</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44250.8928125</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20531,10 +19999,8 @@
           <t>4173300133</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:24:42</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44250.89215277778</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20610,10 +20076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:21:34</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44250.88997685185</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20689,10 +20153,8 @@
           <t>4173264956</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:21:20</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44250.88981481481</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20768,10 +20230,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:20:33</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44250.88927083334</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20843,10 +20303,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:19:01</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44250.88820601852</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20922,10 +20380,8 @@
           <t>4173257586</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:18:39</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44250.88795138889</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20993,10 +20449,8 @@
           <t>4173233394</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:15:03</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44250.88545138889</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21072,10 +20526,8 @@
           <t>4173229252</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:14:37</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44250.88515046296</v>
       </c>
       <c r="I283" t="n">
         <v>16</v>
@@ -21147,10 +20599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:13:05</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44250.88408564815</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21214,10 +20664,8 @@
           <t>4173226060</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:13:03</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44250.8840625</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21289,10 +20737,8 @@
           <t>4173206347</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:11:33</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44250.88302083333</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21385,10 +20831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:11:20</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44250.88287037037</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21456,10 +20900,8 @@
           <t>4172745569</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:11:20</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44250.88287037037</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21527,10 +20969,8 @@
           <t>4172525994</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:11:16</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44250.88282407408</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21602,10 +21042,8 @@
           <t>4173210902</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:10:30</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44250.88229166667</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21677,10 +21115,8 @@
           <t>4173204926</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:10:27</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44250.88225694445</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21748,10 +21184,8 @@
           <t>4173206347</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:10:06</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44250.88201388889</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21823,10 +21257,8 @@
           <t>4173206149</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:10:00</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44250.88194444445</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21902,10 +21334,8 @@
           <t>4173198987</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:09:33</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44250.88163194444</v>
       </c>
       <c r="I294" t="n">
         <v>2</v>
@@ -21981,10 +21411,8 @@
           <t>4173198206</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:09:09</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44250.88135416667</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22056,10 +21484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:08:49</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44250.88112268518</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22127,10 +21553,8 @@
           <t>4173197332</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:08:43</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44250.88105324074</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22202,10 +21626,8 @@
           <t>4172976897</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:08:30</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44250.88090277778</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22269,10 +21691,8 @@
           <t>4173192571</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:08:10</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44250.8806712963</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22344,10 +21764,8 @@
           <t>4172514049</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:06:30</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44250.87951388889</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22424,10 +21842,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:06:05</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44250.87922453704</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22503,10 +21919,8 @@
           <t>4173186200</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:05:43</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44250.8789699074</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22574,10 +21988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:05:24</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44250.87875</v>
       </c>
       <c r="I303" t="n">
         <v>7</v>
@@ -22637,10 +22049,8 @@
           <t>4173169647</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:04:55</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44250.87841435185</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22716,10 +22126,8 @@
           <t>4173175732</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:04:40</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44250.87824074074</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -22787,10 +22195,8 @@
           <t>4172514049</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:03:59</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44250.8777662037</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22862,10 +22268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:01:31</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44250.87605324074</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22937,10 +22341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:01:31</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44250.87605324074</v>
       </c>
       <c r="I308" t="n">
         <v>7</v>
@@ -23016,10 +22418,8 @@
           <t>4172757451</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:01:23</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44250.87596064815</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23087,10 +22487,8 @@
           <t>4173155324</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-02-23 21:00:27</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44250.8753125</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23158,10 +22556,8 @@
           <t>4172574552</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:57:42</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44250.87340277778</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23233,10 +22629,8 @@
           <t>4173135619</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:57:24</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44250.87319444444</v>
       </c>
       <c r="I312" t="n">
         <v>2</v>
@@ -23304,10 +22698,8 @@
           <t>4173114665</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:55:13</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44250.87167824074</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23375,10 +22767,8 @@
           <t>4173114541</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:55:09</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44250.87163194444</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23442,10 +22832,8 @@
           <t>4172900598</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:54:07</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44250.87091435185</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23509,10 +22897,8 @@
           <t>4173103863</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:53:35</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44250.87054398148</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23584,10 +22970,8 @@
           <t>4173096784</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:51:22</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44250.86900462963</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23659,10 +23043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:50:20</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44250.86828703704</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23738,10 +23120,8 @@
           <t>4173070401</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:50:10</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44250.86817129629</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23809,10 +23189,8 @@
           <t>4173070401</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:49:28</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44250.86768518519</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23884,10 +23262,8 @@
           <t>4173073684</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:48:20</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44250.86689814815</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23955,10 +23331,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:47:47</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44250.86651620371</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24031,10 +23405,8 @@
           <t>4173077232</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:47:39</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44250.86642361111</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24106,10 +23478,8 @@
           <t>4172767071</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:47:05</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44250.86603009259</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24177,10 +23547,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:46:43</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44250.86577546296</v>
       </c>
       <c r="I325" t="n">
         <v>10</v>
@@ -24253,10 +23621,8 @@
           <t>4173070401</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:46:35</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44250.86568287037</v>
       </c>
       <c r="I326" t="n">
         <v>8</v>
@@ -24316,10 +23682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:46:15</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44250.86545138889</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24391,10 +23755,8 @@
           <t>4173064152</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:46:04</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44250.86532407408</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24470,10 +23832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:45:29</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44250.86491898148</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24545,10 +23905,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:45:19</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44250.86480324074</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24625,10 +23983,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:44:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44250.86445601852</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24700,10 +24056,8 @@
           <t>4173061424</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:44:41</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44250.86436342593</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24767,10 +24121,8 @@
           <t>4172763742</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:43:52</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44250.8637962963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24846,10 +24198,8 @@
           <t>4173042150</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:42:08</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44250.8625925926</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24921,10 +24271,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:41:06</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44250.861875</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24992,10 +24340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:41:05</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44250.86186342593</v>
       </c>
       <c r="I336" t="n">
         <v>68</v>
@@ -25071,10 +24417,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:40:51</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44250.86170138889</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -25134,10 +24478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:40:50</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44250.86168981482</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25213,10 +24555,8 @@
           <t>4173028553</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:40:10</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44250.86122685186</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25288,10 +24628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:40:03</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44250.86114583333</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25368,10 +24706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:39:41</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44250.8608912037</v>
       </c>
       <c r="I341" t="n">
         <v>7</v>
@@ -25440,10 +24776,8 @@
           <t>4173008978</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:37:47</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44250.85957175926</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25511,10 +24845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:36:24</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44250.85861111111</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25586,10 +24918,8 @@
           <t>4173011154</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:36:17</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44250.85853009259</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25661,10 +24991,8 @@
           <t>4173010665</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:36:03</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44250.85836805555</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25736,10 +25064,8 @@
           <t>4172999910</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:35:40</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44250.85810185185</v>
       </c>
       <c r="I346" t="n">
         <v>20</v>
@@ -25815,10 +25141,8 @@
           <t>4172993990</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:35:06</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44250.85770833334</v>
       </c>
       <c r="I347" t="n">
         <v>2</v>
@@ -25882,10 +25206,8 @@
           <t>4172998784</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:35:05</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44250.85769675926</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -25957,10 +25279,8 @@
           <t>4172993913</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:35:04</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44250.85768518518</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26032,10 +25352,8 @@
           <t>4172992824</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:34:27</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44250.85725694444</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26107,10 +25425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:34:07</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44250.85702546296</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -26182,10 +25498,8 @@
           <t>4172991445</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:33:42</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44250.85673611111</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26250,10 +25564,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:33:25</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44250.85653935185</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26330,10 +25642,8 @@
           <t>4172984876</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:33:07</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44250.85633101852</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26409,10 +25719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:33:02</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44250.85627314815</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26488,10 +25796,8 @@
           <t>4172983572</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:32:28</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44250.85587962963</v>
       </c>
       <c r="I356" t="n">
         <v>29</v>
@@ -26555,10 +25861,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:31:50</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44250.85543981481</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26618,10 +25922,8 @@
           <t>4172982231</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:31:46</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44250.85539351852</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26697,10 +25999,8 @@
           <t>4172981414</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:31:22</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44250.85511574074</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26776,10 +26076,8 @@
           <t>4172976897</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:31:13</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44250.85501157407</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26851,10 +26149,8 @@
           <t>4172795177</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:30:57</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44250.85482638889</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26922,10 +26218,8 @@
           <t>4172969880</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:30:36</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44250.85458333333</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27001,10 +26295,8 @@
           <t>4172964598</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:29:59</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44250.85415509259</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27080,10 +26372,8 @@
           <t>4172963048</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:29:10</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44250.85358796296</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27160,10 +26450,8 @@
           <t>4172757451</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:28:50</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44250.85335648148</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -27223,10 +26511,8 @@
           <t>4172970136</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:28:36</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44250.85319444445</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27294,10 +26580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:28:29</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44250.85311342592</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27365,10 +26649,8 @@
           <t>4172744252</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:28:16</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44250.85296296296</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27436,10 +26718,8 @@
           <t>4172951406</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:26:27</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44250.85170138889</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27511,10 +26791,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:25:38</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44250.85113425926</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27578,10 +26856,8 @@
           <t>4172943944</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:25:25</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44250.8509837963</v>
       </c>
       <c r="I371" t="n">
         <v>11</v>
@@ -27657,10 +26933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:25:11</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44250.85082175926</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -27728,10 +27002,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:24:47</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44250.85054398148</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27803,10 +27075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:23:14</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44250.84946759259</v>
       </c>
       <c r="I374" t="n">
         <v>25</v>
@@ -27874,10 +27144,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:22:41</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44250.84908564815</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27955,10 +27223,8 @@
           <t>4172810517</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:21:53</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44250.84853009259</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28034,10 +27300,8 @@
           <t>4172921999</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:21:50</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44250.84849537037</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28109,10 +27373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:21:47</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44250.84846064815</v>
       </c>
       <c r="I378" t="n">
         <v>7</v>
@@ -28176,10 +27438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:21:45</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44250.8484375</v>
       </c>
       <c r="I379" t="n">
         <v>3</v>
@@ -28247,10 +27507,8 @@
           <t>4172920268</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:21:00</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44250.84791666667</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28318,10 +27576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:20:27</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44250.84753472222</v>
       </c>
       <c r="I381" t="n">
         <v>5</v>
@@ -28397,10 +27653,8 @@
           <t>4172916789</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:20:26</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44250.84752314815</v>
       </c>
       <c r="I382" t="n">
         <v>4</v>
@@ -28476,10 +27730,8 @@
           <t>4172767071</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:19:48</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44250.84708333333</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28555,10 +27807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:19:34</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44250.8469212963</v>
       </c>
       <c r="I384" t="n">
         <v>2</v>
@@ -28634,10 +27884,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:19:34</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44250.8469212963</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28705,10 +27953,8 @@
           <t>4172767071</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:18:07</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44250.84591435185</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28784,10 +28030,8 @@
           <t>4172894154</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:17:51</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44250.84572916666</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28863,10 +28107,8 @@
           <t>4172893274</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:17:24</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44250.84541666666</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28934,10 +28176,8 @@
           <t>4172900598</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:17:04</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44250.84518518519</v>
       </c>
       <c r="I389" t="n">
         <v>53</v>
@@ -29009,10 +28249,8 @@
           <t>4172895812</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:16:24</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44250.84472222222</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29084,10 +28322,8 @@
           <t>4172888690</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:16:00</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44250.84444444445</v>
       </c>
       <c r="I391" t="n">
         <v>2</v>
@@ -29163,10 +28399,8 @@
           <t>4172879877</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:15:39</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44250.84420138889</v>
       </c>
       <c r="I392" t="n">
         <v>7</v>
@@ -29242,10 +28476,8 @@
           <t>4172878741</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:15:04</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44250.8437962963</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29313,10 +28545,8 @@
           <t>4172878416</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:14:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44250.84368055555</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29389,10 +28619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:14:41</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44250.84353009259</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -29468,10 +28696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:14:13</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44250.84320601852</v>
       </c>
       <c r="I396" t="n">
         <v>3</v>
@@ -29547,10 +28773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:14:08</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44250.84314814815</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29647,10 +28871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:13:57</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44250.84302083333</v>
       </c>
       <c r="I398" t="n">
         <v>786</v>
@@ -29722,10 +28944,8 @@
           <t>4172874210</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:13:35</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44250.84276620371</v>
       </c>
       <c r="I399" t="n">
         <v>33</v>
@@ -29797,10 +29017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:13:23</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44250.84262731481</v>
       </c>
       <c r="I400" t="n">
         <v>6</v>
@@ -29872,10 +29090,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:13:02</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44250.84238425926</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29947,10 +29163,8 @@
           <t>4172767071</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:12:30</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44250.84201388889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30032,10 +29246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:12:21</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44250.84190972222</v>
       </c>
       <c r="I403" t="n">
         <v>20</v>
@@ -30103,10 +29315,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:12:10</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44250.84178240741</v>
       </c>
       <c r="I404" t="n">
         <v>2</v>
@@ -30182,10 +29392,8 @@
           <t>4172866517</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:11:49</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44250.84153935185</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30261,10 +29469,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:11:18</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44250.84118055556</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30340,10 +29546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:10:52</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44250.84087962963</v>
       </c>
       <c r="I407" t="n">
         <v>33</v>
@@ -30407,10 +29611,8 @@
           <t>4172848668</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:09:54</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44250.84020833333</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -30482,10 +29684,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:08:50</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44250.8394675926</v>
       </c>
       <c r="I409" t="n">
         <v>3</v>
@@ -30557,10 +29757,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:08:16</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44250.83907407407</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30628,10 +29826,8 @@
           <t>4172655543</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:07:45</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44250.83871527778</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30699,10 +29895,8 @@
           <t>4172757451</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:06:24</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44250.83777777778</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30779,10 +29973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:06:15</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44250.83767361111</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30858,10 +30050,8 @@
           <t>4172810517</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:06:03</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44250.83753472222</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30937,10 +30127,8 @@
           <t>4172829416</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:06:00</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44250.8375</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31012,10 +30200,8 @@
           <t>4172828854</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:05:45</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44250.83732638889</v>
       </c>
       <c r="I416" t="n">
         <v>22</v>
@@ -31087,10 +30273,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:05:44</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44250.83731481482</v>
       </c>
       <c r="I417" t="n">
         <v>6</v>
@@ -31162,10 +30346,8 @@
           <t>4172819448</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:05:14</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44250.83696759259</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31233,10 +30415,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:04:36</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44250.83652777778</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -31304,10 +30484,8 @@
           <t>4172816354</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:03:42</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44250.83590277778</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31375,10 +30553,8 @@
           <t>4172820208</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:03:30</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44250.83576388889</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -31454,10 +30630,8 @@
           <t>4172815140</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:03:06</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44250.83548611111</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31529,10 +30703,8 @@
           <t>4172810517</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:01:49</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44250.83459490741</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31608,10 +30780,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:01:14</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44250.83418981481</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31683,10 +30853,8 @@
           <t>4172798562</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:00:58</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44250.83400462963</v>
       </c>
       <c r="I425" t="n">
         <v>8</v>
@@ -31746,10 +30914,8 @@
           <t>4172789373</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:00:17</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44250.83353009259</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31817,10 +30983,8 @@
           <t>4172523598</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:00:14</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44250.83349537037</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31896,10 +31060,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:00:09</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44250.8334375</v>
       </c>
       <c r="I428" t="n">
         <v>9</v>
@@ -31971,10 +31133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:59:46</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44250.8331712963</v>
       </c>
       <c r="I429" t="n">
         <v>6</v>
@@ -32038,10 +31198,8 @@
           <t>4172795643</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:59:37</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44250.83306712963</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32109,10 +31267,8 @@
           <t>4172795177</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:59:24</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44250.83291666667</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -32188,10 +31344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:59:13</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44250.83278935185</v>
       </c>
       <c r="I432" t="n">
         <v>172</v>
@@ -32267,10 +31421,8 @@
           <t>4172745569</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:58:48</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44250.8325</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32346,10 +31498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:58:43</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44250.83244212963</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32425,10 +31575,8 @@
           <t>4172785131</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:58:11</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44250.83207175926</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32504,10 +31652,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:57:46</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44250.8317824074</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32579,10 +31725,8 @@
           <t>4172773036</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:57:05</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44250.83130787037</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -32658,10 +31802,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:56:50</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44250.83113425926</v>
       </c>
       <c r="I438" t="n">
         <v>11</v>
@@ -32721,10 +31863,8 @@
           <t>4172732639</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:56:47</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44250.83109953703</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32792,10 +31932,8 @@
           <t>4172769827</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:56:47</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44250.83109953703</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32867,10 +32005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:55:40</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44250.83032407407</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32947,10 +32083,8 @@
           <t>4172775141</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:55:36</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44250.83027777778</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33014,10 +32148,8 @@
           <t>4172767071</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:55:25</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44250.83015046296</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33093,10 +32225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:55:08</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44250.8299537037</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -33172,10 +32302,8 @@
           <t>4172765997</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:54:53</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44250.82978009259</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -33252,10 +32380,8 @@
           <t>4172763742</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:54:52</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44250.82976851852</v>
       </c>
       <c r="I446" t="n">
         <v>6</v>
@@ -33319,10 +32445,8 @@
           <t>4172758167</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:54:28</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44250.82949074074</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33399,10 +32523,8 @@
           <t>4172757661</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:54:13</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44250.82931712963</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33478,10 +32600,8 @@
           <t>4172757451</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:54:06</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44250.82923611111</v>
       </c>
       <c r="I449" t="n">
         <v>6</v>
@@ -33541,10 +32661,8 @@
           <t>4172762186</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:54:04</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44250.82921296296</v>
       </c>
       <c r="I450" t="n">
         <v>2</v>
@@ -33620,10 +32738,8 @@
           <t>4172574552</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:53:59</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44250.82915509259</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33699,10 +32815,8 @@
           <t>4172761967</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:53:57</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44250.82913194445</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33780,10 +32894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:53:47</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44250.8290162037</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33847,10 +32959,8 @@
           <t>4172756668</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:53:43</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44250.82896990741</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33914,10 +33024,8 @@
           <t>4172761240</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:53:37</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44250.82890046296</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33989,10 +33097,8 @@
           <t>4172755723</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:53:13</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44250.82862268519</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -34060,10 +33166,8 @@
           <t>4172744993</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:52:50</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44250.82835648148</v>
       </c>
       <c r="I457" t="n">
         <v>5</v>
@@ -34139,10 +33243,8 @@
           <t>4172751644</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:52:46</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44250.82831018518</v>
       </c>
       <c r="I458" t="n">
         <v>3</v>
@@ -34218,10 +33320,8 @@
           <t>4172749337</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:52:39</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44250.82822916667</v>
       </c>
       <c r="I459" t="n">
         <v>6</v>
@@ -34297,10 +33397,8 @@
           <t>4172751245</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:52:35</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44250.82818287037</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34366,10 +33464,8 @@
           <t>4172744252</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:52:29</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44250.82811342592</v>
       </c>
       <c r="I461" t="n">
         <v>226</v>
@@ -34441,10 +33537,8 @@
           <t>4172744153</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:52:26</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44250.8280787037</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34504,10 +33598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:52:06</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44250.82784722222</v>
       </c>
       <c r="I463" t="n">
         <v>80</v>
@@ -34586,10 +33678,8 @@
           <t>4172743220</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:51:57</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44250.82774305555</v>
       </c>
       <c r="I464" t="n">
         <v>3</v>
@@ -34665,10 +33755,8 @@
           <t>4172743202</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:51:56</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44250.82773148148</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34737,10 +33825,8 @@
           <t>4172739836</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:51:56</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44250.82773148148</v>
       </c>
       <c r="I466" t="n">
         <v>4</v>
@@ -34804,10 +33890,8 @@
           <t>4172533097</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:51:35</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44250.82748842592</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34871,10 +33955,8 @@
           <t>4172742469</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:51:33</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44250.82746527778</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34942,10 +34024,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:51:02</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44250.82710648148</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -35021,10 +34101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:50:52</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44250.82699074074</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -35100,10 +34178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:50:49</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44250.82695601852</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -35171,10 +34247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:50:47</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44250.82693287037</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -35242,10 +34316,8 @@
           <t>4172745569</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:50:40</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44250.82685185185</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35305,10 +34377,8 @@
           <t>4172733950</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:49:50</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44250.82627314814</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35372,10 +34442,8 @@
           <t>4172735363</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:49:44</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44250.82620370371</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35443,10 +34511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:49:26</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44250.82599537037</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35522,10 +34588,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:49:11</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44250.82582175926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35593,10 +34657,8 @@
           <t>4172732639</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:49:10</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44250.82581018518</v>
       </c>
       <c r="I478" t="n">
         <v>6</v>
@@ -35656,10 +34718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:48:53</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44250.82561342593</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35735,10 +34795,8 @@
           <t>4172723447</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:48:48</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44250.82555555556</v>
       </c>
       <c r="I480" t="n">
         <v>62</v>
@@ -35810,10 +34868,8 @@
           <t>4172731907</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:48:47</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44250.82554398148</v>
       </c>
       <c r="I481" t="n">
         <v>2</v>
@@ -35889,10 +34945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:48:33</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44250.82538194444</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35956,10 +35010,8 @@
           <t>4172557096</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:48:27</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44250.8253125</v>
       </c>
       <c r="I483" t="n">
         <v>2</v>
@@ -36027,10 +35079,8 @@
           <t>4172722640</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:48:25</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44250.82528935185</v>
       </c>
       <c r="I484" t="n">
         <v>14</v>
@@ -36102,10 +35152,8 @@
           <t>4172580414</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:48:07</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44250.82508101852</v>
       </c>
       <c r="I485" t="n">
         <v>4</v>
@@ -36173,10 +35221,8 @@
           <t>4172719984</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:47:48</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44250.82486111111</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36254,10 +35300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:47:43</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44250.82480324074</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -36329,10 +35373,8 @@
           <t>4172720829</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:47:33</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44250.8246875</v>
       </c>
       <c r="I488" t="n">
         <v>15</v>
@@ -36396,10 +35438,8 @@
           <t>4172720432</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:47:21</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44250.82454861111</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36463,10 +35503,8 @@
           <t>4172720330</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:47:18</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44250.82451388889</v>
       </c>
       <c r="I490" t="n">
         <v>61</v>
@@ -36526,10 +35564,8 @@
           <t>4172718286</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:46:55</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44250.82424768519</v>
       </c>
       <c r="I491" t="n">
         <v>4</v>
@@ -36593,10 +35629,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:46:44</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44250.82412037037</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36672,10 +35706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:46:39</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44250.8240625</v>
       </c>
       <c r="I493" t="n">
         <v>8</v>
@@ -36739,10 +35771,8 @@
           <t>4172659392</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:46:35</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44250.8240162037</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36818,10 +35848,8 @@
           <t>4172525994</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:46:00</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44250.82361111111</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36897,10 +35925,8 @@
           <t>4172557096</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:44:54</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44250.82284722223</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36976,10 +36002,8 @@
           <t>4172699028</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:44:31</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44250.82258101852</v>
       </c>
       <c r="I497" t="n">
         <v>3</v>
@@ -37047,10 +36071,8 @@
           <t>4172694225</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:44:19</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44250.82244212963</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37118,10 +36140,8 @@
           <t>4172702789</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:44:01</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44250.82223379629</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -37189,10 +36209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:44:00</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44250.82222222222</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -37260,10 +36278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:43:48</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44250.82208333333</v>
       </c>
       <c r="I501" t="n">
         <v>5</v>
@@ -37339,10 +36355,8 @@
           <t>4172692736</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:43:35</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44250.82193287037</v>
       </c>
       <c r="I502" t="n">
         <v>2</v>
@@ -37407,10 +36421,8 @@
           <t>4172567075</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:42:44</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44250.82134259259</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37482,10 +36494,8 @@
           <t>4172700122</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:42:37</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44250.82126157408</v>
       </c>
       <c r="I504" t="n">
         <v>6</v>
@@ -37557,10 +36567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:41:46</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44250.82067129629</v>
       </c>
       <c r="I505" t="n">
         <v>6</v>
@@ -37624,10 +36632,8 @@
           <t>4172688512</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:41:45</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44250.82065972222</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37691,10 +36697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:41:34</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44250.82053240741</v>
       </c>
       <c r="I507" t="n">
         <v>5</v>
@@ -37771,10 +36775,8 @@
           <t>4172580414</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:41:25</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44250.82042824074</v>
       </c>
       <c r="I508" t="n">
         <v>16</v>
@@ -37838,10 +36840,8 @@
           <t>4172677992</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:41:13</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44250.82028935185</v>
       </c>
       <c r="I509" t="n">
         <v>33</v>
@@ -37913,10 +36913,8 @@
           <t>4172677996</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:41:13</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44250.82028935185</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37991,10 +36989,8 @@
           <t>4172677684</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:41:04</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44250.82018518518</v>
       </c>
       <c r="I511" t="n">
         <v>55</v>
@@ -38066,10 +37062,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:40:48</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44250.82</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38141,10 +37135,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:40:15</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44250.81961805555</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -38220,10 +37212,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:39:26</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44250.81905092593</v>
       </c>
       <c r="I514" t="n">
         <v>7</v>
@@ -38292,10 +37282,8 @@
           <t>4172528422</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:39:24</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44250.81902777778</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38359,10 +37347,8 @@
           <t>4172668523</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:38:57</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44250.81871527778</v>
       </c>
       <c r="I516" t="n">
         <v>5</v>
@@ -38426,10 +37412,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:38:46</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44250.81858796296</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38498,10 +37482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:38:39</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44250.81850694444</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38573,10 +37555,8 @@
           <t>4172580414</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:38:37</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44250.8184837963</v>
       </c>
       <c r="I519" t="n">
         <v>2</v>
@@ -38640,10 +37620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:38:06</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44250.818125</v>
       </c>
       <c r="I520" t="n">
         <v>163</v>
@@ -38703,10 +37681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:37:55</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44250.81799768518</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38782,10 +37758,8 @@
           <t>4172670960</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:37:48</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44250.81791666667</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38857,10 +37831,8 @@
           <t>4172660521</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:37:20</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44250.81759259259</v>
       </c>
       <c r="I523" t="n">
         <v>118</v>
@@ -38924,10 +37896,8 @@
           <t>4172659392</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:36:59</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44250.81734953704</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -39003,10 +37973,8 @@
           <t>4172602825</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:36:42</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44250.81715277778</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39082,10 +38050,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:36:37</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44250.8170949074</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -39157,10 +38123,8 @@
           <t>4172658040</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:36:17</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44250.81686342593</v>
       </c>
       <c r="I527" t="n">
         <v>2</v>
@@ -39232,10 +38196,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:35:34</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44250.81636574074</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -39303,10 +38265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:35:14</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44250.81613425926</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -39374,10 +38334,8 @@
           <t>4172655543</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:34:59</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44250.81596064815</v>
       </c>
       <c r="I530" t="n">
         <v>2</v>
@@ -39446,10 +38404,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:34:56</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44250.81592592593</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39521,10 +38477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:34:38</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44250.8157175926</v>
       </c>
       <c r="I532" t="n">
         <v>9</v>
@@ -39584,10 +38538,8 @@
           <t>4172644476</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:34:24</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44250.81555555556</v>
       </c>
       <c r="I533" t="n">
         <v>3</v>
@@ -39651,10 +38603,8 @@
           <t>4172638545</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:33:57</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44250.81524305556</v>
       </c>
       <c r="I534" t="n">
         <v>2</v>
@@ -39718,10 +38668,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:32:28</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44250.81421296296</v>
       </c>
       <c r="I535" t="n">
         <v>2</v>
@@ -39793,10 +38741,8 @@
           <t>4172631469</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:32:26</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44250.81418981482</v>
       </c>
       <c r="I536" t="n">
         <v>2</v>
@@ -39868,10 +38814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:32:24</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44250.81416666666</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39939,10 +38883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:32:14</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44250.81405092592</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -40010,10 +38952,8 @@
           <t>4172629000</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:31:44</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44250.8137037037</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -40085,10 +39025,8 @@
           <t>4172623553</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:31:24</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44250.81347222222</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -40152,10 +39090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:31:13</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44250.81334490741</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40224,10 +39160,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:31:11</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44250.81332175926</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40287,10 +39221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:30:57</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44250.81315972222</v>
       </c>
       <c r="I543" t="n">
         <v>28</v>
@@ -40358,10 +39290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:30:46</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44250.81303240741</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40425,10 +39355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:30:44</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44250.81300925926</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40492,10 +39420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:30:42</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44250.81298611111</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40559,10 +39485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:30:19</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44250.81271990741</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40638,10 +39562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:30:12</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44250.81263888889</v>
       </c>
       <c r="I548" t="n">
         <v>102</v>
@@ -40705,10 +39627,8 @@
           <t>4172620958</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:30:02</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44250.81252314815</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40780,10 +39700,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:29:52</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44250.81240740741</v>
       </c>
       <c r="I550" t="n">
         <v>23</v>
@@ -40843,10 +39761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:29:33</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44250.8121875</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40914,10 +39830,8 @@
           <t>4172614503</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:29:28</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44250.81212962963</v>
       </c>
       <c r="I552" t="n">
         <v>2</v>
@@ -40985,10 +39899,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:29:12</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44250.81194444445</v>
       </c>
       <c r="I553" t="n">
         <v>5</v>
@@ -41052,10 +39964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:29:11</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44250.81193287037</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41131,10 +40041,8 @@
           <t>4172604915</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:28:54</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44250.81173611111</v>
       </c>
       <c r="I555" t="n">
         <v>8</v>
@@ -41206,10 +40114,8 @@
           <t>4172604066</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:28:27</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44250.81142361111</v>
       </c>
       <c r="I556" t="n">
         <v>12</v>
@@ -41273,10 +40179,8 @@
           <t>4172602825</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:27:46</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44250.81094907408</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41344,10 +40248,8 @@
           <t>4172602565</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:27:38</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44250.81085648148</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41411,10 +40313,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:27:38</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44250.81085648148</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41474,10 +40374,8 @@
           <t>4172610685</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:27:32</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44250.81078703704</v>
       </c>
       <c r="I560" t="n">
         <v>4</v>
@@ -41541,10 +40439,8 @@
           <t>4172605982</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:27:24</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44250.81069444444</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41617,10 +40513,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:26:54</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44250.81034722222</v>
       </c>
       <c r="I562" t="n">
         <v>10</v>
@@ -41692,10 +40586,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:26:45</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44250.81024305556</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41767,10 +40659,8 @@
           <t>4172580786</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:26:22</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44250.80997685185</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41838,10 +40728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:26:10</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44250.80983796297</v>
       </c>
       <c r="I565" t="n">
         <v>3</v>
@@ -41917,10 +40805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:25:50</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44250.80960648148</v>
       </c>
       <c r="I566" t="n">
         <v>1210</v>
@@ -41996,10 +40882,8 @@
           <t>4172596988</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:25:42</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44250.80951388889</v>
       </c>
       <c r="I567" t="n">
         <v>2</v>
@@ -42075,10 +40959,8 @@
           <t>4172587829</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:25:06</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44250.80909722222</v>
       </c>
       <c r="I568" t="n">
         <v>4</v>
@@ -42154,10 +41036,8 @@
           <t>4172587779</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:25:05</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44250.80908564815</v>
       </c>
       <c r="I569" t="n">
         <v>16</v>
@@ -42229,10 +41109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:24:18</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44250.80854166667</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42301,10 +41179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:23:32</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44250.80800925926</v>
       </c>
       <c r="I571" t="n">
         <v>5</v>
@@ -42376,10 +41252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:23:31</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44250.80799768519</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42443,10 +41317,8 @@
           <t>4172574552</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:23:23</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44250.8079050926</v>
       </c>
       <c r="I573" t="n">
         <v>10</v>
@@ -42510,10 +41382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:23:06</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44250.80770833333</v>
       </c>
       <c r="I574" t="n">
         <v>7</v>
@@ -42577,10 +41447,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:22:49</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44250.80751157407</v>
       </c>
       <c r="I575" t="n">
         <v>9</v>
@@ -42644,10 +41512,8 @@
           <t>4172580786</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:22:36</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44250.80736111111</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42719,10 +41585,8 @@
           <t>4172580414</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:22:25</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44250.80723379629</v>
       </c>
       <c r="I577" t="n">
         <v>88</v>
@@ -42790,10 +41654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:22:24</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44250.80722222223</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42857,10 +41719,8 @@
           <t>4172572155</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:22:08</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44250.80703703704</v>
       </c>
       <c r="I579" t="n">
         <v>9</v>
@@ -42924,10 +41784,8 @@
           <t>4172572072</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:22:06</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44250.80701388889</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -43003,10 +41861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:21:49</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44250.80681712963</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43066,10 +41922,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:21:34</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44250.80664351852</v>
       </c>
       <c r="I582" t="n">
         <v>14</v>
@@ -43141,10 +41995,8 @@
           <t>4172538405</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:21:18</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44250.80645833333</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43216,10 +42068,8 @@
           <t>4172570237</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:21:07</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44250.80633101852</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43291,10 +42141,8 @@
           <t>4172567075</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:20:45</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44250.80607638889</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43366,10 +42214,8 @@
           <t>4172526921</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:20:32</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44250.80592592592</v>
       </c>
       <c r="I586" t="n">
         <v>5</v>
@@ -43445,10 +42291,8 @@
           <t>4172566259</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:20:20</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44250.80578703704</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43524,10 +42368,8 @@
           <t>4172566226</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:20:19</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44250.80577546296</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43603,10 +42445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:20:07</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44250.80563657408</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43670,10 +42510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:20:01</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44250.80556712963</v>
       </c>
       <c r="I590" t="n">
         <v>2</v>
@@ -43741,10 +42579,8 @@
           <t>4172561458</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:54</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44250.80548611111</v>
       </c>
       <c r="I591" t="n">
         <v>2</v>
@@ -43820,10 +42656,8 @@
           <t>4172561239</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:47</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44250.80540509259</v>
       </c>
       <c r="I592" t="n">
         <v>2</v>
@@ -43895,10 +42729,8 @@
           <t>4172554991</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:43</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44250.80535879629</v>
       </c>
       <c r="I593" t="n">
         <v>2</v>
@@ -43974,10 +42806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:37</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44250.80528935185</v>
       </c>
       <c r="I594" t="n">
         <v>5</v>
@@ -44049,10 +42879,8 @@
           <t>4172557096</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:25</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44250.80515046296</v>
       </c>
       <c r="I595" t="n">
         <v>3</v>
@@ -44120,10 +42948,8 @@
           <t>4172556856</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:18</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44250.80506944445</v>
       </c>
       <c r="I596" t="n">
         <v>8</v>
@@ -44199,10 +43025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:13</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44250.80501157408</v>
       </c>
       <c r="I597" t="n">
         <v>70</v>
@@ -44270,10 +43094,8 @@
           <t>4172553909</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:10</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44250.80497685185</v>
       </c>
       <c r="I598" t="n">
         <v>6</v>
@@ -44350,10 +43172,8 @@
           <t>4172550506</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:19:03</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44250.80489583333</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44425,10 +43245,8 @@
           <t>4172553275</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:18:52</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44250.80476851852</v>
       </c>
       <c r="I600" t="n">
         <v>6</v>
@@ -44500,10 +43318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:18:18</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44250.804375</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44575,10 +43391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:18:17</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44250.80436342592</v>
       </c>
       <c r="I602" t="n">
         <v>2</v>
@@ -44654,10 +43468,8 @@
           <t>4172523598</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:18:14</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44250.80432870371</v>
       </c>
       <c r="I603" t="n">
         <v>25</v>
@@ -44729,10 +43541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:17:57</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44250.80413194445</v>
       </c>
       <c r="I604" t="n">
         <v>23</v>
@@ -44809,10 +43619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:17:49</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44250.80403935185</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44877,10 +43685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:17:34</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44250.80386574074</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44952,10 +43758,8 @@
           <t>4172550506</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:17:28</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44250.8037962963</v>
       </c>
       <c r="I607" t="n">
         <v>5</v>
@@ -45027,10 +43831,8 @@
           <t>4172526921</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:17:09</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44250.80357638889</v>
       </c>
       <c r="I608" t="n">
         <v>17</v>
@@ -45106,10 +43908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:17:08</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44250.80356481481</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45177,10 +43977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:54</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44250.80340277778</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45248,10 +44046,8 @@
           <t>4172539348</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:53</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44250.80339120371</v>
       </c>
       <c r="I611" t="n">
         <v>8</v>
@@ -45319,10 +44115,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:49</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44250.80334490741</v>
       </c>
       <c r="I612" t="n">
         <v>5</v>
@@ -45398,10 +44192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:36</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44250.80319444444</v>
       </c>
       <c r="I613" t="n">
         <v>8</v>
@@ -45461,10 +44253,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:30</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44250.803125</v>
       </c>
       <c r="I614" t="n">
         <v>4</v>
@@ -45536,10 +44326,8 @@
           <t>4172538405</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:25</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44250.80306712963</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45607,10 +44395,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:20</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44250.80300925926</v>
       </c>
       <c r="I616" t="n">
         <v>5</v>
@@ -45678,10 +44464,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:16:04</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44250.80282407408</v>
       </c>
       <c r="I617" t="n">
         <v>1</v>
@@ -45753,10 +44537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:55</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44250.80271990741</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45832,10 +44614,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:45</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44250.80260416667</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45903,10 +44683,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:38</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44250.80252314815</v>
       </c>
       <c r="I620" t="n">
         <v>3</v>
@@ -45967,10 +44745,8 @@
           <t>4172533097</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:36</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44250.8025</v>
       </c>
       <c r="I621" t="n">
         <v>3</v>
@@ -46038,10 +44814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:29</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44250.80241898148</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46117,10 +44891,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:22</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44250.80233796296</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -46184,10 +44956,8 @@
           <t>4172536195</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:20</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44250.80231481481</v>
       </c>
       <c r="I624" t="n">
         <v>8</v>
@@ -46255,10 +45025,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:20</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44250.80231481481</v>
       </c>
       <c r="I625" t="n">
         <v>3</v>
@@ -46334,10 +45102,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:19</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44250.80230324074</v>
       </c>
       <c r="I626" t="n">
         <v>1</v>
@@ -46409,10 +45175,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:04</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44250.80212962963</v>
       </c>
       <c r="I627" t="n">
         <v>33</v>
@@ -46476,10 +45240,8 @@
           <t>4172531959</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:15:02</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44250.80210648148</v>
       </c>
       <c r="I628" t="n">
         <v>11</v>
@@ -46551,10 +45313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:55</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44250.80202546297</v>
       </c>
       <c r="I629" t="n">
         <v>100</v>
@@ -46626,10 +45386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:54</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44250.80201388889</v>
       </c>
       <c r="I630" t="n">
         <v>6</v>
@@ -46703,10 +45461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:52</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44250.80199074074</v>
       </c>
       <c r="I631" t="n">
         <v>46</v>
@@ -46782,10 +45538,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:51</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44250.80197916667</v>
       </c>
       <c r="I632" t="n">
         <v>6</v>
@@ -46853,10 +45607,8 @@
           <t>4172528422</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:50</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44250.80196759259</v>
       </c>
       <c r="I633" t="n">
         <v>9</v>
@@ -46932,10 +45684,8 @@
           <t>4172528353</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:48</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44250.80194444444</v>
       </c>
       <c r="I634" t="n">
         <v>64</v>
@@ -47003,10 +45753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:42</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44250.801875</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -47074,10 +45822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:32</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44250.80175925926</v>
       </c>
       <c r="I636" t="n">
         <v>2</v>
@@ -47153,10 +45899,8 @@
           <t>4172530830</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:27</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44250.80170138889</v>
       </c>
       <c r="I637" t="n">
         <v>3</v>
@@ -47232,10 +45976,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:18</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44250.80159722222</v>
       </c>
       <c r="I638" t="n">
         <v>3</v>
@@ -47311,10 +46053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:12</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44250.80152777778</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47386,10 +46126,8 @@
           <t>4172523757</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:07</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44250.8014699074</v>
       </c>
       <c r="I640" t="n">
         <v>10</v>
@@ -47465,10 +46203,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:05</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44250.80144675926</v>
       </c>
       <c r="I641" t="n">
         <v>2</v>
@@ -47540,10 +46276,8 @@
           <t>4172523598</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:02</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44250.80141203704</v>
       </c>
       <c r="I642" t="n">
         <v>15</v>
@@ -47619,10 +46353,8 @@
           <t>4172526921</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:14:01</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44250.80140046297</v>
       </c>
       <c r="I643" t="n">
         <v>2</v>
@@ -47698,10 +46430,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:47</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44250.80123842593</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47777,10 +46507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:46</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44250.80122685185</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47848,10 +46576,8 @@
           <t>4172519465</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:44</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44250.8012037037</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47919,10 +46645,8 @@
           <t>4172525994</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:31</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44250.80105324074</v>
       </c>
       <c r="I647" t="n">
         <v>31</v>
@@ -47990,10 +46714,8 @@
           <t>4172522161</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:20</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44250.80092592593</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -48069,10 +46791,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:16</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44250.80087962963</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -48144,10 +46864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:15</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44250.80086805556</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48219,10 +46937,8 @@
           <t>4172518370</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:09</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44250.80079861111</v>
       </c>
       <c r="I651" t="n">
         <v>2</v>
@@ -48298,10 +47014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:13:00</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44250.80069444444</v>
       </c>
       <c r="I652" t="n">
         <v>20</v>
@@ -48369,10 +47083,8 @@
           <t>4172521404</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:12:57</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44250.80065972222</v>
       </c>
       <c r="I653" t="n">
         <v>2</v>
@@ -48440,10 +47152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:12:56</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44250.80064814815</v>
       </c>
       <c r="I654" t="n">
         <v>7</v>
@@ -48507,10 +47217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:12:49</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44250.80056712963</v>
       </c>
       <c r="I655" t="n">
         <v>3</v>
@@ -48586,10 +47294,8 @@
           <t>4172520814</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:12:41</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44250.80047453703</v>
       </c>
       <c r="I656" t="n">
         <v>6</v>
@@ -48665,10 +47371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:12:40</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44250.80046296296</v>
       </c>
       <c r="I657" t="n">
         <v>457</v>
@@ -48736,10 +47440,8 @@
           <t>4172514049</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:12:30</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44250.80034722222</v>
       </c>
       <c r="I658" t="n">
         <v>158</v>
@@ -48807,10 +47509,8 @@
           <t>4172515987</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:57</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44250.79996527778</v>
       </c>
       <c r="I659" t="n">
         <v>2</v>
@@ -48878,10 +47578,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:56</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44250.7999537037</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48945,10 +47643,8 @@
           <t>4172508821</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:42</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44250.79979166666</v>
       </c>
       <c r="I661" t="n">
         <v>2</v>
@@ -49020,10 +47716,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:36</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44250.79972222223</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -49099,10 +47793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:33</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44250.7996875</v>
       </c>
       <c r="I663" t="n">
         <v>1</v>
@@ -49166,10 +47858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:32</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44250.79967592593</v>
       </c>
       <c r="I664" t="n">
         <v>306</v>
@@ -49233,10 +47923,8 @@
           <t>4172508292</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:26</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44250.79960648148</v>
       </c>
       <c r="I665" t="n">
         <v>7</v>
@@ -49308,10 +47996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:15</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44250.79947916666</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49379,10 +48065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:07</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44250.79938657407</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49454,10 +48138,8 @@
           <t>4172504042</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:11:00</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44250.79930555556</v>
       </c>
       <c r="I668" t="n">
         <v>5</v>
@@ -49533,10 +48215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:10:39</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44250.7990625</v>
       </c>
       <c r="I669" t="n">
         <v>1</v>
@@ -49604,10 +48284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:10:37</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44250.79903935185</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49679,10 +48357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:10:23</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44250.79887731482</v>
       </c>
       <c r="I671" t="n">
         <v>1</v>
@@ -49759,10 +48435,8 @@
           <t>4172499862</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:10:20</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44250.79884259259</v>
       </c>
       <c r="I672" t="n">
         <v>2</v>
@@ -49838,10 +48512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:10:19</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44250.79883101852</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49917,10 +48589,8 @@
           <t>4172502659</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:10:18</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44250.79881944445</v>
       </c>
       <c r="I674" t="n">
         <v>21</v>
@@ -49984,10 +48654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:10:05</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44250.79866898148</v>
       </c>
       <c r="I675" t="n">
         <v>617</v>
@@ -50063,10 +48731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:58</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44250.79858796296</v>
       </c>
       <c r="I676" t="n">
         <v>13</v>
@@ -50138,10 +48804,8 @@
           <t>4172498999</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:53</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44250.79853009259</v>
       </c>
       <c r="I677" t="n">
         <v>3</v>
@@ -50217,10 +48881,8 @@
           <t>4172494842</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:46</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44250.79844907407</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -50284,10 +48946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:45</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44250.7984375</v>
       </c>
       <c r="I679" t="n">
         <v>11</v>
@@ -50351,10 +49011,8 @@
           <t>4172494676</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:41</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44250.7983912037</v>
       </c>
       <c r="I680" t="n">
         <v>5</v>
@@ -50426,10 +49084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:36</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44250.79833333333</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50505,10 +49161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:35</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44250.79832175926</v>
       </c>
       <c r="I682" t="n">
         <v>233</v>
@@ -50580,10 +49234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:34</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44250.79831018519</v>
       </c>
       <c r="I683" t="n">
         <v>84</v>
@@ -50655,10 +49307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:28</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44250.79824074074</v>
       </c>
       <c r="I684" t="n">
         <v>12</v>
@@ -50734,10 +49384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:23</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44250.79818287037</v>
       </c>
       <c r="I685" t="n">
         <v>139</v>
@@ -50805,10 +49453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:17</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44250.79811342592</v>
       </c>
       <c r="I686" t="n">
         <v>1</v>
@@ -50884,10 +49530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:11</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44250.79804398148</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50947,10 +49591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:05</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44250.79797453704</v>
       </c>
       <c r="I688" t="n">
         <v>1857</v>
@@ -51022,10 +49664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:09:04</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44250.79796296296</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -51101,10 +49741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:08:51</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44250.7978125</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -51180,10 +49818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:08:50</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44250.79780092592</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -51256,10 +49892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:08:44</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44250.79773148148</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
